--- a/hom/plots/Temperature dependent hom.xlsx
+++ b/hom/plots/Temperature dependent hom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Joseph/Documents/PhD/projects/multi parameter estimation/repos/multi-parameter-estimation/hom/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1D00C0-5BD3-B243-8560-E3C0FD5070B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397B1BCE-6EB4-3449-B99F-CFE78F87E2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2300" windowWidth="27640" windowHeight="16940" xr2:uid="{4D483D37-CE14-D74D-BBB0-21811E347B04}"/>
   </bookViews>
@@ -118,7 +118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -128,6 +128,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -257,10 +263,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>20.5</c:v>
                 </c:pt>
@@ -279,15 +285,18 @@
                 <c:pt idx="5">
                   <c:v>28</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>27</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$7</c:f>
+              <c:f>Sheet1!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0" formatCode="0%">
                   <c:v>0.86</c:v>
                 </c:pt>
@@ -305,6 +314,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.96840000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97129999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1417,10 +1429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3FDC27-5607-8C40-85D2-647FE95BA119}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1481,8 +1493,17 @@
         <v>0.96840000000000004</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>27</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.97129999999999994</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/hom/plots/Temperature dependent hom.xlsx
+++ b/hom/plots/Temperature dependent hom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Joseph/Documents/PhD/projects/multi parameter estimation/repos/multi-parameter-estimation/hom/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1D00C0-5BD3-B243-8560-E3C0FD5070B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8289B0-B634-1947-B2F5-0916B2572BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2300" windowWidth="27640" windowHeight="16940" xr2:uid="{4D483D37-CE14-D74D-BBB0-21811E347B04}"/>
   </bookViews>
@@ -118,7 +118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -130,12 +130,16 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -257,10 +261,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>20.5</c:v>
                 </c:pt>
@@ -279,15 +283,18 @@
                 <c:pt idx="5">
                   <c:v>28</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>27</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$7</c:f>
+              <c:f>Sheet1!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0" formatCode="0%">
                   <c:v>0.86</c:v>
                 </c:pt>
@@ -305,6 +312,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.96840000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97130000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1417,10 +1427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3FDC27-5607-8C40-85D2-647FE95BA119}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1481,6 +1491,14 @@
         <v>0.96840000000000004</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>27</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.97130000000000005</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/hom/plots/Temperature dependent hom.xlsx
+++ b/hom/plots/Temperature dependent hom.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Joseph/Documents/PhD/projects/multi parameter estimation/repos/multi-parameter-estimation/hom/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8289B0-B634-1947-B2F5-0916B2572BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4496ADB-FEB8-0847-A440-19C093FEF0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="2300" windowWidth="27640" windowHeight="16940" xr2:uid="{4D483D37-CE14-D74D-BBB0-21811E347B04}"/>
+    <workbookView xWindow="160" yWindow="1020" windowWidth="33880" windowHeight="19600" activeTab="1" xr2:uid="{4D483D37-CE14-D74D-BBB0-21811E347B04}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Laser at 775" sheetId="1" r:id="rId1"/>
+    <sheet name="Laser at 775.5" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,12 +37,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Temp</t>
   </si>
   <si>
     <t>Visibility</t>
+  </si>
+  <si>
+    <t>Visibility (no filter)</t>
+  </si>
+  <si>
+    <t>Visibility (filtered w alluxa)</t>
+  </si>
+  <si>
+    <t>Visibility (filtered w Semrock)</t>
   </si>
 </sst>
 </file>
@@ -118,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -136,10 +146,14 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -212,7 +226,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>'Laser at 775'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -261,7 +275,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:f>'Laser at 775'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -291,7 +305,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$8</c:f>
+              <c:f>'Laser at 775'!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
@@ -513,7 +527,882 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Laser at 775.5'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Visibility (no filter)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:forward val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Laser at 775.5'!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Laser at 775.5'!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95450000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96899999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B543-5040-8074-5E61A5E8918C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Laser at 775.5'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Visibility (filtered w alluxa)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Laser at 775.5'!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Laser at 775.5'!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="1">
+                  <c:v>0.82599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9083</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92490000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96209999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93869999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95009999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B543-5040-8074-5E61A5E8918C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="565610368"/>
+        <c:axId val="818613343"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="565610368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="818613343"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="818613343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="565610368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Laser at 775.5'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Visibility (filtered w Semrock)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Laser at 775.5'!$B$2:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Laser at 775.5'!$E$2:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="4" formatCode="0.00%">
+                  <c:v>0.97299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00%">
+                  <c:v>0.9607</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00%">
+                  <c:v>0.97140000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00%">
+                  <c:v>0.9748</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00%">
+                  <c:v>0.97050000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00%">
+                  <c:v>0.97350000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00%">
+                  <c:v>0.97550000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00%">
+                  <c:v>0.97370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00%">
+                  <c:v>0.97389999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-86BC-D844-9EA6-168A6A8F0BAD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2122957760"/>
+        <c:axId val="2122959472"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2122957760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="40"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2122959472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2122959472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2122957760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1069,6 +1958,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1102,6 +3023,85 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>613755</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>63579</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>232755</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>127706</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E788122D-78FA-694E-BF40-6C67C0643B40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>665574</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>55190</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>298685</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>148637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{380B9D2D-1AF3-9D8D-A661-36F7E452B09D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1429,7 +3429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3FDC27-5607-8C40-85D2-647FE95BA119}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1492,10 +3492,10 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+      <c r="A8" s="5">
         <v>27</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>0.97130000000000005</v>
       </c>
     </row>
@@ -1503,4 +3503,186 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0CDCA41-704C-B847-961A-C4DF30A04099}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="162" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="10">
+        <v>45763</v>
+      </c>
+      <c r="B2" s="8">
+        <v>30</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="8">
+        <v>36</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0.87</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.82599999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="8">
+        <v>40</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0.95450000000000002</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.9083</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="8">
+        <v>45</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.92490000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="8">
+        <v>41.5</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.96209999999999996</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.97299999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="8">
+        <v>42.5</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.93869999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="8">
+        <v>44.8</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7">
+        <v>0.95009999999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
+        <v>45764</v>
+      </c>
+      <c r="B11" s="8">
+        <v>44.9</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0.9607</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="8">
+        <v>43.8</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.97140000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="8">
+        <v>42</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.9748</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="8">
+        <v>41</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.97050000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="8">
+        <v>43</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.97350000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="8">
+        <v>42.4</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.97550000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="8">
+        <v>42.8</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.97370000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="8">
+        <v>42.6</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.97389999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>